--- a/study/excel/test.xlsx
+++ b/study/excel/test.xlsx
@@ -9,34 +9,322 @@
   <sheets>
     <sheet name="new_test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" calcOnSave="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>test</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
   <si>
     <t>工顶替工</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>苛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马海燕</t>
+  </si>
+  <si>
+    <t>李健</t>
+  </si>
+  <si>
+    <t>18091915871</t>
+  </si>
+  <si>
+    <t>44510219620325939X</t>
+  </si>
+  <si>
+    <t>飞利信科技有限公司</t>
+  </si>
+  <si>
+    <t>qiangmo@gang.cn</t>
+  </si>
+  <si>
+    <t>NEKIomzDFujfWmWOnjNs</t>
+  </si>
+  <si>
+    <t>卢旺达</t>
+  </si>
+  <si>
+    <t>四川省</t>
+  </si>
+  <si>
+    <t>县</t>
+  </si>
+  <si>
+    <t>邯郸路a座</t>
+  </si>
+  <si>
+    <t>澳门特别行政区昆明县永川广州路u座 457325</t>
+  </si>
+  <si>
+    <t>胡丽华</t>
+  </si>
+  <si>
+    <t>陈玉兰</t>
+  </si>
+  <si>
+    <t>18955124802</t>
+  </si>
+  <si>
+    <t>620701196204137533</t>
+  </si>
+  <si>
+    <t>新宇龙信息传媒有限公司</t>
+  </si>
+  <si>
+    <t>tao58@98.cn</t>
+  </si>
+  <si>
+    <t>bxBoKhRLfAxzbSoxIvny</t>
+  </si>
+  <si>
+    <t>肯尼亚</t>
+  </si>
+  <si>
+    <t>贵州省</t>
+  </si>
+  <si>
+    <t>乌鲁木齐街v座</t>
+  </si>
+  <si>
+    <t>湖南省东莞县上街杨街I座 623370</t>
+  </si>
+  <si>
+    <t>赵晨</t>
+  </si>
+  <si>
+    <t>石峰</t>
+  </si>
+  <si>
+    <t>18289936235</t>
+  </si>
+  <si>
+    <t>610924195911291192</t>
+  </si>
+  <si>
+    <t>创亿信息有限公司</t>
+  </si>
+  <si>
+    <t>na79@45.cn</t>
+  </si>
+  <si>
+    <t>lJnOtlTNiOaiLUiRFGsz</t>
+  </si>
+  <si>
+    <t>突尼斯</t>
+  </si>
+  <si>
+    <t>江西省</t>
+  </si>
+  <si>
+    <t>市</t>
+  </si>
+  <si>
+    <t>萧路c座</t>
+  </si>
+  <si>
+    <t>甘肃省潮州县东丽赵街n座 782867</t>
+  </si>
+  <si>
+    <t>曹磊</t>
+  </si>
+  <si>
+    <t>武莹</t>
+  </si>
+  <si>
+    <t>15804384204</t>
+  </si>
+  <si>
+    <t>530927194811051161</t>
+  </si>
+  <si>
+    <t>明腾科技有限公司</t>
+  </si>
+  <si>
+    <t>xia46@mao.cn</t>
+  </si>
+  <si>
+    <t>VJKBVCyNojGpyyMcwolg</t>
+  </si>
+  <si>
+    <t>斯洛伐克</t>
+  </si>
+  <si>
+    <t>青海省</t>
+  </si>
+  <si>
+    <t>海口街c座</t>
+  </si>
+  <si>
+    <t>海南省梧州县东城通辽路p座 413023</t>
+  </si>
+  <si>
+    <t>尹淑珍</t>
+  </si>
+  <si>
+    <t>石瑞</t>
+  </si>
+  <si>
+    <t>18988397349</t>
+  </si>
+  <si>
+    <t>532625197712192782</t>
+  </si>
+  <si>
+    <t>信诚致远传媒有限公司</t>
+  </si>
+  <si>
+    <t>llai@xiajun.cn</t>
+  </si>
+  <si>
+    <t>xplweFjQVACcgQGRXXMM</t>
+  </si>
+  <si>
+    <t>圣赫勒拿</t>
+  </si>
+  <si>
+    <t>重庆市</t>
+  </si>
+  <si>
+    <t>赵街b座</t>
+  </si>
+  <si>
+    <t>山东省雪梅县友好刘街b座 354458</t>
+  </si>
+  <si>
+    <t>李想</t>
+  </si>
+  <si>
+    <t>詹秀云</t>
+  </si>
+  <si>
+    <t>13368669397</t>
+  </si>
+  <si>
+    <t>140411193312175340</t>
+  </si>
+  <si>
+    <t>艾提科信网络有限公司</t>
+  </si>
+  <si>
+    <t>cluo@br.cn</t>
+  </si>
+  <si>
+    <t>FCUEjMMusUKxCGNLnuiL</t>
+  </si>
+  <si>
+    <t>尼日尔</t>
+  </si>
+  <si>
+    <t>黑龙江省</t>
+  </si>
+  <si>
+    <t>潮州街c座</t>
+  </si>
+  <si>
+    <t>湖北省柳州县高港司路n座 351161</t>
+  </si>
+  <si>
+    <t>鄢桂香</t>
+  </si>
+  <si>
+    <t>朱丹丹</t>
+  </si>
+  <si>
+    <t>18549189209</t>
+  </si>
+  <si>
+    <t>654326199104118413</t>
+  </si>
+  <si>
+    <t>开发区世创网络有限公司</t>
+  </si>
+  <si>
+    <t>wfang@junwei.cn</t>
+  </si>
+  <si>
+    <t>xENwuzmDJXcRkNcmBtxC</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>江苏省</t>
+  </si>
+  <si>
+    <t>永安街N座</t>
+  </si>
+  <si>
+    <t>四川省大冶市孝南张街K座 514863</t>
+  </si>
+  <si>
+    <t>朱秀梅</t>
+  </si>
+  <si>
+    <t>吴丹丹</t>
+  </si>
+  <si>
+    <t>15919820599</t>
+  </si>
+  <si>
+    <t>62110119410207928X</t>
+  </si>
+  <si>
+    <t>通际名联信息有限公司</t>
+  </si>
+  <si>
+    <t>yong93@hou.cn</t>
+  </si>
+  <si>
+    <t>JoUuZJvgOCGmPNkdLcqq</t>
+  </si>
+  <si>
+    <t>所罗门群岛</t>
+  </si>
+  <si>
+    <t>北京市</t>
+  </si>
+  <si>
+    <t>南宁路y座</t>
+  </si>
+  <si>
+    <t>云南省太原县静安重庆街K座 266678</t>
+  </si>
+  <si>
+    <t>林亮</t>
+  </si>
+  <si>
+    <t>白兵</t>
+  </si>
+  <si>
+    <t>15556419514</t>
+  </si>
+  <si>
+    <t>652823198606048357</t>
+  </si>
+  <si>
+    <t>fliang@guiying.cn</t>
+  </si>
+  <si>
+    <t>GVzfEKXcptBMYkkGGCsO</t>
+  </si>
+  <si>
+    <t>罗马尼亚</t>
+  </si>
+  <si>
+    <t>天津市</t>
+  </si>
+  <si>
+    <t>廖街m座</t>
+  </si>
+  <si>
+    <t>澳门特别行政区海口市徐汇李路E座 764829</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="1"/>
-    </font>
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -76,13 +364,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -380,31 +668,363 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="13.5">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="13.5">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="13.5">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="13.5">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="13.5">
+      <c r="A5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="13.5">
+      <c r="A6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="13.5">
+      <c r="A7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="13.5">
+      <c r="A8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="2" customFormat="1" ht="13.5">
+      <c r="A9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="D11" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="D11" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/study/excel/test.xlsx
+++ b/study/excel/test.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="new_test" sheetId="1" r:id="rId1"/>
@@ -331,13 +331,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -346,7 +340,7 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <charset val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -354,352 +348,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -707,251 +370,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -965,57 +386,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1033,7 +407,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1304,23 +678,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:12">
+    <row r="1" spans="1:12" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1358,7 +733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:12">
+    <row r="2" spans="1:12" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1396,7 +771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:12">
+    <row r="3" spans="1:12" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -1434,7 +809,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:12">
+    <row r="4" spans="1:12" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
@@ -1472,7 +847,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:12">
+    <row r="5" spans="1:12" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -1510,7 +885,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:12">
+    <row r="6" spans="1:12" s="2" customFormat="1">
       <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
@@ -1548,7 +923,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:12">
+    <row r="7" spans="1:12" s="2" customFormat="1">
       <c r="A7" s="2" t="s">
         <v>68</v>
       </c>
@@ -1586,7 +961,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:12">
+    <row r="8" spans="1:12" s="2" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>79</v>
       </c>
@@ -1624,7 +999,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:12">
+    <row r="9" spans="1:12" s="2" customFormat="1">
       <c r="A9" s="2" t="s">
         <v>90</v>
       </c>
@@ -1662,15 +1037,16 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="4:4">
+    <row r="11" spans="1:12">
       <c r="D11" s="3" t="s">
         <v>100</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;P</oddHeader>
     <oddFooter>&amp;C&amp;F</oddFooter>
@@ -1679,15 +1055,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="11" spans="5:5">
       <c r="E11" s="1" t="s">
@@ -1695,21 +1070,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="10" spans="6:6">
       <c r="F10" s="1" t="s">
@@ -1717,7 +1091,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/study/excel/test.xlsx
+++ b/study/excel/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="102">
   <si>
     <t>马海燕</t>
   </si>
@@ -316,9 +316,6 @@
   </si>
   <si>
     <t>澳门特别行政区海口市徐汇李路E座 764829</t>
-  </si>
-  <si>
-    <t>工顶替工</t>
   </si>
   <si>
     <t>表二</t>
@@ -331,16 +328,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -374,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -382,9 +374,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -687,13 +676,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A46" sqref="A46:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
@@ -1037,13 +1032,1718 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="D11" s="3" t="s">
-        <v>100</v>
+    <row r="10" spans="1:12" s="2" customFormat="1">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="2" customFormat="1">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="2" customFormat="1">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="2" customFormat="1">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="2" customFormat="1">
+      <c r="A14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="2" customFormat="1">
+      <c r="A15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="2" customFormat="1">
+      <c r="A16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="2" customFormat="1">
+      <c r="A17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="2" customFormat="1">
+      <c r="A18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="2" customFormat="1">
+      <c r="A19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="2" customFormat="1">
+      <c r="A20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="2" customFormat="1">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="2" customFormat="1">
+      <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="2" customFormat="1">
+      <c r="A23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="2" customFormat="1">
+      <c r="A24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="2" customFormat="1">
+      <c r="A25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="2" customFormat="1">
+      <c r="A26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="2" customFormat="1">
+      <c r="A27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="2" customFormat="1">
+      <c r="A28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="2" customFormat="1">
+      <c r="A29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="2" customFormat="1">
+      <c r="A30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="2" customFormat="1">
+      <c r="A31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="2" customFormat="1">
+      <c r="A32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="2" customFormat="1">
+      <c r="A33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="2" customFormat="1">
+      <c r="A34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="2" customFormat="1">
+      <c r="A35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="2" customFormat="1">
+      <c r="A36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="2" customFormat="1">
+      <c r="A37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="2" customFormat="1">
+      <c r="A38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="2" customFormat="1">
+      <c r="A39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="2" customFormat="1">
+      <c r="A40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="2" customFormat="1">
+      <c r="A41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="2" customFormat="1">
+      <c r="A42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="2" customFormat="1">
+      <c r="A43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="2" customFormat="1">
+      <c r="A44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="2" customFormat="1">
+      <c r="A45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="2" customFormat="1">
+      <c r="A46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="2" customFormat="1">
+      <c r="A47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="2" customFormat="1">
+      <c r="A48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="2" customFormat="1">
+      <c r="A49" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="2" customFormat="1">
+      <c r="A50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="2" customFormat="1">
+      <c r="A51" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="2" customFormat="1">
+      <c r="A52" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="2" customFormat="1">
+      <c r="A53" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="2" customFormat="1">
+      <c r="A54" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1066,11 +2766,11 @@
   <sheetData>
     <row r="11" spans="5:5">
       <c r="E11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1087,11 +2787,11 @@
   <sheetData>
     <row r="10" spans="6:6">
       <c r="F10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>